--- a/results/data/AA2-AA3.xlsx
+++ b/results/data/AA2-AA3.xlsx
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4287174</v>
+        <v>4525806</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1955850</v>
+        <v>1955395</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>274404</v>
+        <v>274396</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1829672</v>
+        <v>1872350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>732337</v>
+        <v>732510</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>197283</v>
+        <v>197264</v>
       </c>
     </row>
     <row r="13" spans="1:3">
